--- a/trunk/Lapidem/documentation/Sprint 2 UserStories.xlsx
+++ b/trunk/Lapidem/documentation/Sprint 2 UserStories.xlsx
@@ -224,9 +224,6 @@
     <t>As a developer I want the maps to save and load using relative paths</t>
   </si>
   <si>
-    <t>As a designer I want all of the buttons to function clearly and properly.</t>
-  </si>
-  <si>
     <t>As a designer I want to be able to create and edit animations.</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>Enemies are visible in the game and can move around</t>
+  </si>
+  <si>
+    <t>As a designer I want all of the buttons to function clearly and properly. Animation editor</t>
   </si>
 </sst>
 </file>
@@ -964,6 +964,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -991,6 +1004,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1000,19 +1022,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,15 +1047,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="59" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2">
@@ -1801,7 +1801,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -1963,7 +1963,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4">
@@ -2017,7 +2017,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4">
@@ -2044,7 +2044,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -2071,7 +2071,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
@@ -2098,7 +2098,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4">
@@ -2179,7 +2179,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4">
@@ -2233,7 +2233,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4">
@@ -2260,7 +2260,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4">
@@ -2314,7 +2314,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4">
@@ -2341,7 +2341,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4">
@@ -2368,7 +2368,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4">
@@ -2470,854 +2470,854 @@
       <c r="B31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
+      <c r="C33" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
+      <c r="C34" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
+      <c r="C36" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
+      <c r="C37" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
+      <c r="C38" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" thickBot="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86"/>
+      <c r="C39" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80"/>
+      <c r="C40" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
+      <c r="C41" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
+      <c r="C42" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
+      <c r="C43" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="13.5" thickBot="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
+      <c r="C44" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46"/>
-      <c r="C46" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
+      <c r="C46" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47"/>
-      <c r="C47" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
+      <c r="C47" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48"/>
-      <c r="C48" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
+      <c r="C48" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49"/>
-      <c r="C49" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
+      <c r="C49" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50"/>
-      <c r="C50" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
+      <c r="C50" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51"/>
-      <c r="C51" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
+      <c r="C51" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="80"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="83"/>
+      <c r="C54" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
+      <c r="C58" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="83"/>
+      <c r="C59" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="86"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="83"/>
+      <c r="C60" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="83"/>
+      <c r="C61" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="86"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="83"/>
+      <c r="C62" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="86"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="83"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="83"/>
+      <c r="C64" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="86"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="83"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="83"/>
+      <c r="C68" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="86"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="86"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="83"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="86"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="83"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="83"/>
+      <c r="C72" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="86"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="83"/>
+      <c r="C73" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="83"/>
+      <c r="C74" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="86"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="80"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="83"/>
     </row>
     <row r="76" spans="1:8" ht="15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="73" t="s">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+    </row>
+    <row r="77" spans="1:8" ht="15">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-    </row>
-    <row r="77" spans="1:8" ht="15">
-      <c r="A77" s="74"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="73" t="s">
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+    </row>
+    <row r="78" spans="1:8" ht="15">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-    </row>
-    <row r="78" spans="1:8" ht="15">
-      <c r="A78" s="74"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
+      <c r="C79" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
     </row>
     <row r="80" spans="1:8" ht="25.5" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="80"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="83"/>
+      <c r="C81" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="86"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="83"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="86"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="83"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="86"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="80"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="83"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="83"/>
+      <c r="C85" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="86"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="83"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="86"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="83"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="86"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="80"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="83"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="83"/>
+      <c r="C89" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="83"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="86"/>
     </row>
     <row r="91" spans="1:8" ht="13.5" thickBot="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="83"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="86"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="79"/>
-      <c r="H92" s="80"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="83"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="83"/>
+      <c r="C93" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="83"/>
+      <c r="C94" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="86"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="79"/>
-      <c r="H95" s="80"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="83"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="89"/>
+      <c r="C96" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="64"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
-      <c r="C97" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="89"/>
+      <c r="C97" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
-      <c r="C98" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="88"/>
-      <c r="G98" s="88"/>
-      <c r="H98" s="89"/>
+      <c r="C98" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="64"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
-      <c r="C99" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="89"/>
+      <c r="C99" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="89"/>
+      <c r="C100" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="64"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="86"/>
+      <c r="C101" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="89"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="69"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="74"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
-      <c r="C103" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
+      <c r="C103" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="68"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
       <c r="C104" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" s="76"/>
       <c r="E104" s="76"/>
@@ -3329,7 +3329,7 @@
       <c r="A105" s="60"/>
       <c r="B105" s="60"/>
       <c r="C105" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -3341,7 +3341,7 @@
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -3353,7 +3353,7 @@
       <c r="A107" s="60"/>
       <c r="B107" s="60"/>
       <c r="C107" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -3364,384 +3364,365 @@
     <row r="108" spans="1:8" ht="13.5" thickBot="1">
       <c r="A108" s="58"/>
       <c r="B108" s="58"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="66"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="71"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="69"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="74"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
-      <c r="C110" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="63"/>
+      <c r="C110" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="68"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
-      <c r="C111" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
+      <c r="C111" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="68"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1">
       <c r="A112" s="58"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="66"/>
+      <c r="C112" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="71"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="69"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="74"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="63"/>
+      <c r="C114" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="68"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="63"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="68"/>
     </row>
     <row r="116" spans="1:8" ht="13.5" thickBot="1">
       <c r="A116" s="58"/>
       <c r="B116" s="58"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="66"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="71"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="69"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="74"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
-      <c r="C118" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="63"/>
+      <c r="C118" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="68"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
-      <c r="C119" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="63"/>
+      <c r="C119" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="68"/>
     </row>
     <row r="120" spans="1:8" ht="13.5" thickBot="1">
       <c r="A120" s="58"/>
       <c r="B120" s="58"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="66"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="71"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B121" s="20"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="69"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="74"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="63"/>
+      <c r="C122" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="68"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
-      <c r="C123" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="63"/>
+      <c r="C123" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="68"/>
     </row>
     <row r="124" spans="1:8" ht="13.5" thickBot="1">
       <c r="A124" s="58"/>
       <c r="B124" s="58"/>
-      <c r="C124" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="66"/>
+      <c r="C124" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="71"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="74"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
-      <c r="C126" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="63"/>
+      <c r="C126" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="68"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
-      <c r="C127" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="63"/>
+      <c r="C127" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="68"/>
     </row>
     <row r="128" spans="1:8" ht="13.5" thickBot="1">
       <c r="A128" s="58"/>
       <c r="B128" s="58"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="66"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="71"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="69"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="73"/>
+      <c r="H129" s="74"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
-      <c r="C130" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="63"/>
+      <c r="C130" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="68"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="63"/>
+      <c r="C131" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="68"/>
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1">
       <c r="A132" s="58"/>
       <c r="B132" s="58"/>
-      <c r="C132" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D132" s="65"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="66"/>
+      <c r="C132" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="71"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="69"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="74"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="63"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="68"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
-      <c r="C135" s="61"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
-      <c r="F135" s="62"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="63"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="68"/>
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1">
       <c r="A136" s="58"/>
       <c r="B136" s="58"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="66"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="70"/>
+      <c r="H136" s="71"/>
     </row>
   </sheetData>
   <sortState ref="A8:A14">
     <sortCondition ref="A14"/>
   </sortState>
   <mergeCells count="106">
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
@@ -3762,6 +3743,52 @@
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="C42:H42"/>
     <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C49:H49"/>
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="C58:H58"/>
@@ -3775,33 +3802,6 @@
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C66:H66"/>
     <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A32">
